--- a/outputs/faculty_timetables/Dr__Sunil_C_K.xlsx
+++ b/outputs/faculty_timetables/Dr__Sunil_C_K.xlsx
@@ -796,48 +796,21 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>CS161 | Problem Solving through Programming | Dr. Sunil C K | C003</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>LUNCH BREAK</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>CS161 | Problem Solving through Programming | Dr. Sunil C K | C002</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -928,14 +901,15 @@
       <c r="AM6" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="N5:Q5"/>
     <mergeCell ref="AG2:AL2"/>
     <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="I5:N5"/>
     <mergeCell ref="N3:U3"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="X2:AE2"/>
     <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R5:W5"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="I6:N6"/>
   </mergeCells>
